--- a/上交中心小学.xlsx
+++ b/上交中心小学.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\芒海小学\记帐\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B145B55B-AE32-4D03-826A-9467D116F33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6524BAE8-C6C3-4181-81D0-AE2BB0C137F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11月" sheetId="1" r:id="rId1"/>
     <sheet name="11月零" sheetId="2" r:id="rId2"/>
+    <sheet name="电费" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +82,26 @@
   </si>
   <si>
     <t>芒海小学代扣水电费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-11月电费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼儿园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月的九千</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,7 +111,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -128,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -136,18 +157,17 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -156,9 +176,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -175,6 +193,32 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -194,25 +238,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B97697A2-0510-4EEB-B52D-EE03F2664B91}" name="表1" displayName="表1" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B97697A2-0510-4EEB-B52D-EE03F2664B91}" name="表1" displayName="表1" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:C1048576" xr:uid="{B97697A2-0510-4EEB-B52D-EE03F2664B91}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4AE39D57-927D-4E8B-A90A-DEF0FCEF50A0}" name="项目" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{AB772D00-8FB2-4FD1-A9E3-E6955B5A2279}" name="金额" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{0569E7CA-E00A-468C-80A8-BF7444C0CFFA}" name="备注" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{4AE39D57-927D-4E8B-A90A-DEF0FCEF50A0}" name="项目" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{AB772D00-8FB2-4FD1-A9E3-E6955B5A2279}" name="金额" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{0569E7CA-E00A-468C-80A8-BF7444C0CFFA}" name="备注" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1905FC3C-5EEC-4D22-B5BB-1E16AC976FE4}" name="表2" displayName="表2" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1905FC3C-5EEC-4D22-B5BB-1E16AC976FE4}" name="表2" displayName="表2" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:D1048576" xr:uid="{1905FC3C-5EEC-4D22-B5BB-1E16AC976FE4}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{6744B276-8378-47E7-82B8-F9DA7ECCFA00}" name="时间" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{8B3409C0-F9ED-4032-8D27-B4BED86321FA}" name="项目" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{9AE9D33B-34A2-427C-B924-25AC2AE1C612}" name="金额" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{44958521-225F-4FDF-AB29-ADECE6E38E17}" name="备注" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{6744B276-8378-47E7-82B8-F9DA7ECCFA00}" name="时间" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{8B3409C0-F9ED-4032-8D27-B4BED86321FA}" name="项目" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{9AE9D33B-34A2-427C-B924-25AC2AE1C612}" name="金额" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{44958521-225F-4FDF-AB29-ADECE6E38E17}" name="备注" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{61C90792-F18B-4F2A-AAA0-BA7D646609B0}" name="表3" displayName="表3" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D1048576" xr:uid="{61C90792-F18B-4F2A-AAA0-BA7D646609B0}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{1C3E7142-F9B4-450B-902D-34D7CC260161}" name="列1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{8EAB0E90-9A64-429A-98F2-4D48404B300E}" name="时间" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{DD8584AD-877A-4272-BADD-CF979F74CB0B}" name="金额" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{EEFF6897-081D-4176-8579-8999DDE473D1}" name="备注" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -481,17 +538,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1"/>
+    <col min="3" max="3" width="16.4140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -511,6 +568,17 @@
       </c>
       <c r="B2" s="2">
         <v>5458.54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3193.17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -527,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B650562-4CA6-4E2C-8B5A-72B2ABBD910C}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -676,4 +744,109 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066ED36E-6FC8-4A56-8073-9DE709980CF4}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="13.9140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="2"/>
+    <col min="4" max="4" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44932</v>
+      </c>
+      <c r="C2" s="2">
+        <v>64.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44932</v>
+      </c>
+      <c r="C3" s="2">
+        <v>159.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44932</v>
+      </c>
+      <c r="C4" s="2">
+        <v>641.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44967</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44967</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44963</v>
+      </c>
+      <c r="C7" s="2">
+        <v>243.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/上交中心小学.xlsx
+++ b/上交中心小学.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\芒海小学\记帐\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6524BAE8-C6C3-4181-81D0-AE2BB0C137F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF83FA4D-B04B-4EF4-AF04-5F0C733F48E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,15 +93,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>列1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12月的九千</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/3/1-2023/3-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/2/1-2023/2/28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/1/1-023/1/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/12/1-023/12/31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,8 +277,11 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{61C90792-F18B-4F2A-AAA0-BA7D646609B0}" name="表3" displayName="表3" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D1048576" xr:uid="{61C90792-F18B-4F2A-AAA0-BA7D646609B0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D8">
+    <sortCondition descending="1" ref="A1:A1048576"/>
+  </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1C3E7142-F9B4-450B-902D-34D7CC260161}" name="列1" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{1C3E7142-F9B4-450B-902D-34D7CC260161}" name="项目" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{8EAB0E90-9A64-429A-98F2-4D48404B300E}" name="时间" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{DD8584AD-877A-4272-BADD-CF979F74CB0B}" name="金额" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{EEFF6897-081D-4176-8579-8999DDE473D1}" name="备注" dataDxfId="0"/>
@@ -541,7 +556,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -578,7 +593,7 @@
         <v>3193.17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +611,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -748,23 +763,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066ED36E-6FC8-4A56-8073-9DE709980CF4}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="13.9140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="2"/>
+    <col min="2" max="2" width="24.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>5</v>
@@ -776,77 +791,98 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4">
-        <v>44932</v>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="2">
         <v>64.11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4">
-        <v>44932</v>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="2">
         <v>159.65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4">
-        <v>44932</v>
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="2">
-        <v>641.64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4">
-        <v>44967</v>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>6.93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4">
-        <v>44967</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="2">
-        <v>20.11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>641.64</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4">
-        <v>44963</v>
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>243.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2">
+        <v>943.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1262.76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/上交中心小学.xlsx
+++ b/上交中心小学.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\芒海小学\记帐\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/410ea0ba249880df/桌面/counts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF83FA4D-B04B-4EF4-AF04-5F0C733F48E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{AF83FA4D-B04B-4EF4-AF04-5F0C733F48E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AE23D7D-DDEE-4C95-9968-A3CF3113F18C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6150" yWindow="4215" windowWidth="28800" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="11月" sheetId="1" r:id="rId1"/>
-    <sheet name="11月零" sheetId="2" r:id="rId2"/>
-    <sheet name="电费" sheetId="3" r:id="rId3"/>
+    <sheet name="2022-11" sheetId="1" r:id="rId1"/>
+    <sheet name="电费" sheetId="3" r:id="rId2"/>
+    <sheet name="2022-11（零）" sheetId="2" r:id="rId3"/>
+    <sheet name="2023-05" sheetId="6" r:id="rId4"/>
+    <sheet name="2023-06" sheetId="5" r:id="rId5"/>
+    <sheet name="2023-07" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +117,125 @@
   </si>
   <si>
     <t>2023/12/1-023/12/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付芒海小学聘请教师工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付芒海小学6月电费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保安工资5、6月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒海小学维修平台费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒海小学复印件碳粉墨水及维修费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒海小学2022秋辅导资料费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+  </si>
+  <si>
+    <t>上面拨款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒海小学幼儿园教师4-6月工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒海小学5月电费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒海小学2.0全员培训网络研修费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒海小学买课桌椅费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港头小学清理校园垃圾费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒海小学买复印纸费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒海小学2022年秋季1-6年级课堂练习卷款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐闻凯达印刷厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈玉迷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏六生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐闻县恒源家具店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待报解预算收入暂挂户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东电网有限责任公司湛江供电局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代发工资户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐闻县广弘教育书店有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐闻县三联电脑服务部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐闻县恒源教学设备有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代发公司户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒海小学幼儿园教师3-4月工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒海小学保安4月工资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -175,11 +297,67 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="31">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -250,41 +428,98 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B97697A2-0510-4EEB-B52D-EE03F2664B91}" name="表1" displayName="表1" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B97697A2-0510-4EEB-B52D-EE03F2664B91}" name="表1" displayName="表1" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:C1048576" xr:uid="{B97697A2-0510-4EEB-B52D-EE03F2664B91}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4AE39D57-927D-4E8B-A90A-DEF0FCEF50A0}" name="项目" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{AB772D00-8FB2-4FD1-A9E3-E6955B5A2279}" name="金额" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{0569E7CA-E00A-468C-80A8-BF7444C0CFFA}" name="备注" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{4AE39D57-927D-4E8B-A90A-DEF0FCEF50A0}" name="项目" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{AB772D00-8FB2-4FD1-A9E3-E6955B5A2279}" name="金额" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{0569E7CA-E00A-468C-80A8-BF7444C0CFFA}" name="备注" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1905FC3C-5EEC-4D22-B5BB-1E16AC976FE4}" name="表2" displayName="表2" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:D1048576" xr:uid="{1905FC3C-5EEC-4D22-B5BB-1E16AC976FE4}"/>
-  <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{6744B276-8378-47E7-82B8-F9DA7ECCFA00}" name="时间" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{8B3409C0-F9ED-4032-8D27-B4BED86321FA}" name="项目" dataDxfId="8"/>
-    <tableColumn id="1" xr3:uid="{9AE9D33B-34A2-427C-B924-25AC2AE1C612}" name="金额" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{44958521-225F-4FDF-AB29-ADECE6E38E17}" name="备注" dataDxfId="6"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{61C90792-F18B-4F2A-AAA0-BA7D646609B0}" name="表3" displayName="表3" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{61C90792-F18B-4F2A-AAA0-BA7D646609B0}" name="表3" displayName="表3" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:D1048576" xr:uid="{61C90792-F18B-4F2A-AAA0-BA7D646609B0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D8">
     <sortCondition descending="1" ref="A1:A1048576"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1C3E7142-F9B4-450B-902D-34D7CC260161}" name="项目" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{8EAB0E90-9A64-429A-98F2-4D48404B300E}" name="时间" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{DD8584AD-877A-4272-BADD-CF979F74CB0B}" name="金额" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{EEFF6897-081D-4176-8579-8999DDE473D1}" name="备注" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1C3E7142-F9B4-450B-902D-34D7CC260161}" name="项目" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{8EAB0E90-9A64-429A-98F2-4D48404B300E}" name="时间" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{DD8584AD-877A-4272-BADD-CF979F74CB0B}" name="金额" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{EEFF6897-081D-4176-8579-8999DDE473D1}" name="备注" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1905FC3C-5EEC-4D22-B5BB-1E16AC976FE4}" name="表2" displayName="表2" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:D1048576" xr:uid="{1905FC3C-5EEC-4D22-B5BB-1E16AC976FE4}"/>
+  <tableColumns count="4">
+    <tableColumn id="4" xr3:uid="{6744B276-8378-47E7-82B8-F9DA7ECCFA00}" name="时间" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{8B3409C0-F9ED-4032-8D27-B4BED86321FA}" name="项目" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{9AE9D33B-34A2-427C-B924-25AC2AE1C612}" name="金额" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{44958521-225F-4FDF-AB29-ADECE6E38E17}" name="备注" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A312CF95-6A1F-41A1-BC1C-1CB876F03124}" name="表8" displayName="表8" ref="A1:E4" totalsRowCount="1">
+  <autoFilter ref="A1:E3" xr:uid="{A312CF95-6A1F-41A1-BC1C-1CB876F03124}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B387A5B8-3DCD-4CBE-9B19-FB7101F2F984}" name="时间" totalsRowLabel="汇总" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E9136F04-B1B5-444B-9ED8-7FD3BD62B0DF}" name="收款人"/>
+    <tableColumn id="3" xr3:uid="{367F0163-1D9D-476B-AA25-322D65046CD1}" name="用途"/>
+    <tableColumn id="4" xr3:uid="{D5E9932F-1D23-4C89-88E1-66E4B395BDAF}" name="金额" totalsRowFunction="sum" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{834FED8D-1282-425F-B955-EDB9ECF4B60E}" name="备注"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A03F1958-C2E4-4C1C-B135-922916B7F23C}" name="表7" displayName="表7" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{A03F1958-C2E4-4C1C-B135-922916B7F23C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D8">
+    <sortCondition ref="A1:A8"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{BBD28D61-50DC-4DE7-8BC3-9D4959570EF4}" name="时间" totalsRowLabel="汇总" dataDxfId="6" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{E9769AC1-29C8-4DF3-B96E-9481BBD4EB7B}" name="收款人" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{5FDAD2F3-17CB-425B-8E2E-A283900814A8}" name="用途"/>
+    <tableColumn id="4" xr3:uid="{A94D7549-B031-4376-B4A3-0037EE9F434A}" name="金额" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{0BC28527-5890-4C8E-877F-31CDA0CB84C9}" name="备注"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CC3E0286-8DBE-4667-A417-3D5EDF940C01}" name="表4" displayName="表4" ref="A1:D8" totalsRowCount="1">
+  <autoFilter ref="A1:D7" xr:uid="{CC3E0286-8DBE-4667-A417-3D5EDF940C01}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D7">
+    <sortCondition ref="A1:A7"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{1ED3668C-EC15-4A07-B804-B63BB464A1E2}" name="时间" totalsRowLabel="汇总" dataDxfId="13" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{FF4FBC1B-50C0-414A-9D42-157D5D486BCC}" name="收款人" dataDxfId="10" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{AE1FDB1F-A90F-46CF-AC95-A93A6B2915E5}" name="用途"/>
+    <tableColumn id="3" xr3:uid="{075C3575-8042-4A68-96B5-02E53E4D25A2}" name="金额" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D87AE3B9-DAC6-4D1C-9F64-7E9FC64D9ABC}" name="表6" displayName="表6" ref="E1:E8" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="E1:E8" xr:uid="{D87AE3B9-DAC6-4D1C-9F64-7E9FC64D9ABC}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{BCE162C3-1A49-4911-B1F7-2AFEBD29CAFD}" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -559,14 +794,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -585,7 +820,7 @@
         <v>5458.54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -607,6 +842,132 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066ED36E-6FC8-4A56-8073-9DE709980CF4}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.625" style="1"/>
+    <col min="2" max="2" width="24.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2">
+        <v>64.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2">
+        <v>159.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>20.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2">
+        <v>641.64</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2">
+        <v>243.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2">
+        <v>943.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1262.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B650562-4CA6-4E2C-8B5A-72B2ABBD910C}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -614,15 +975,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="24.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -636,7 +997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>44872</v>
       </c>
@@ -647,7 +1008,7 @@
         <v>1363.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>44873</v>
       </c>
@@ -658,7 +1019,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>44873</v>
       </c>
@@ -669,7 +1030,7 @@
         <v>2739.96</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>44873</v>
       </c>
@@ -680,7 +1041,7 @@
         <v>6590</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>44873</v>
       </c>
@@ -691,7 +1052,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>44873</v>
       </c>
@@ -702,7 +1063,7 @@
         <v>21800</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>44892</v>
       </c>
@@ -713,7 +1074,7 @@
         <v>15800</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>44893</v>
       </c>
@@ -724,7 +1085,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>44893</v>
       </c>
@@ -735,7 +1096,7 @@
         <v>5043.7299999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>44893</v>
       </c>
@@ -746,7 +1107,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
         <v>64885.19</v>
@@ -761,127 +1122,389 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066ED36E-6FC8-4A56-8073-9DE709980CF4}">
-  <dimension ref="A1:E9"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105FC491-D9CD-4175-8C30-041BFF1485C3}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="24.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="14.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2">
-        <v>64.11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2">
-        <v>159.65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2">
-        <v>6.93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2">
-        <v>20.11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2">
-        <v>641.64</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2">
-        <v>243.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2">
-        <v>943.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1262.76</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>45056</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="7">
+        <v>21750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>45075</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7">
+        <f>SUBTOTAL(109,表8[金额])</f>
+        <v>24250</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0BA28F-EE8B-4781-A6F0-C6FA364D78F0}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>45082</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="7">
+        <v>5088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>45083</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>45083</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9920</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>45083</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1700</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>45083</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="7">
+        <v>7000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>45089</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7">
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>45089</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2215.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9"/>
+      <c r="D9" s="7">
+        <f>SUBTOTAL(109,表7[金额])</f>
+        <v>65523.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5589D9A8-D9EB-4F5E-864F-49D3A56840D0}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>45112</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="7">
+        <v>9290</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>45112</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="7">
+        <v>12156</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>45112</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3572.94</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>45117</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>45117</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>45117</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="D8" s="7">
+        <f>SUBTOTAL(109,表4[金额])</f>
+        <v>42417.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
